--- a/file1.xlsx
+++ b/file1.xlsx
@@ -345,6 +345,2984 @@
         <v>Tanggal Akhir Tenor</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>JM03E1330118</v>
+      </c>
+      <c r="B2" t="str">
+        <v>FANCA PUTRA PRATAMA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>73</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>085893584436</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>JM82E1732807</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ANGGIH NUGRAHA</v>
+      </c>
+      <c r="C3" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>081382475264</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>JM91E2608575</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DEWI NIRMALA</v>
+      </c>
+      <c r="C4" t="str">
+        <v>G8</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>083819896079</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>JM91E2748712</v>
+      </c>
+      <c r="B5" t="str">
+        <v>DZUN NUN AHMAD MAULIDI</v>
+      </c>
+      <c r="C5" t="str">
+        <v>95</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>6285780859081</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>JM91E2772648</v>
+      </c>
+      <c r="B6" t="str">
+        <v>RUSWANTO HAERUDIN</v>
+      </c>
+      <c r="C6" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>6281411134233</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>KF01E1267378</v>
+      </c>
+      <c r="B7" t="str">
+        <v>RAFLI AL ISLAM</v>
+      </c>
+      <c r="C7" t="str">
+        <v>95</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>081318700232</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>KF01E1439919</v>
+      </c>
+      <c r="B8" t="str">
+        <v>RIZQI ALFIANDRA KURNIAWAN</v>
+      </c>
+      <c r="C8" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D8" t="str"/>
+      <c r="E8" t="str">
+        <v>087888289448</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>KF81E1204621</v>
+      </c>
+      <c r="B9" t="str">
+        <v>MUHAMMAD HERMANSYAH</v>
+      </c>
+      <c r="C9" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D9" t="str"/>
+      <c r="E9" t="str">
+        <v>083845388949</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>KFB1E1027646</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BUDI MULYADI</v>
+      </c>
+      <c r="C10" t="str">
+        <v>93</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>6281513305749</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>JBP1E1888634</v>
+      </c>
+      <c r="B11" t="str">
+        <v>SONY ALEXSANDER</v>
+      </c>
+      <c r="C11" t="str">
+        <v>O1</v>
+      </c>
+      <c r="D11" t="str"/>
+      <c r="E11" t="str">
+        <v>081285324048</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>JM02E1647656</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ANO SUMARNO</v>
+      </c>
+      <c r="C12" t="str">
+        <v>93</v>
+      </c>
+      <c r="D12" t="str"/>
+      <c r="E12" t="str">
+        <v>081318075202</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>JM02E1711411</v>
+      </c>
+      <c r="B13" t="str">
+        <v>DEDE SAPUTRI</v>
+      </c>
+      <c r="C13" t="str">
+        <v>I5</v>
+      </c>
+      <c r="D13" t="str"/>
+      <c r="E13" t="str">
+        <v>081287080065</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>JM03E1068058</v>
+      </c>
+      <c r="B14" t="str">
+        <v>FIRDHA ESTER MELINDA</v>
+      </c>
+      <c r="C14" t="str">
+        <v>P5</v>
+      </c>
+      <c r="D14" t="str"/>
+      <c r="E14" t="str">
+        <v>0895610543299</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>JM03E1068060</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ANDA SUPRIADI</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>083153521878</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>JM03E1068148</v>
+      </c>
+      <c r="B16" t="str">
+        <v>UJU MUSPITA SARI</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="D16" t="str"/>
+      <c r="E16" t="str">
+        <v>085891020515</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>JM03E1164246</v>
+      </c>
+      <c r="B17" t="str">
+        <v>YATI</v>
+      </c>
+      <c r="C17" t="str">
+        <v>m2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>08985552335</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>JM03E1170098</v>
+      </c>
+      <c r="B18" t="str">
+        <v>MUARIPIN</v>
+      </c>
+      <c r="C18" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D18" t="str"/>
+      <c r="E18" t="str">
+        <v>6287866784166</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>JM03E1171847</v>
+      </c>
+      <c r="B19" t="str">
+        <v>SITI HOPIPAH PARWATI</v>
+      </c>
+      <c r="C19" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>6289643936453</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>JM03E1171871</v>
+      </c>
+      <c r="B20" t="str">
+        <v>LALA AMELIA</v>
+      </c>
+      <c r="C20" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D20" t="str"/>
+      <c r="E20" t="str">
+        <v>628999238685</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>JM03E1304005</v>
+      </c>
+      <c r="B21" t="str">
+        <v>SRI WAHYUNI</v>
+      </c>
+      <c r="C21" t="str">
+        <v>R2</v>
+      </c>
+      <c r="D21" t="str"/>
+      <c r="E21" t="str">
+        <v>085775446153</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>JM04E1015962</v>
+      </c>
+      <c r="B22" t="str">
+        <v>IWAN ANGGA SATRIA</v>
+      </c>
+      <c r="C22" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>082225898885</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>JM04E1067829</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BAEHAKI</v>
+      </c>
+      <c r="C23" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D23" t="str"/>
+      <c r="E23" t="str">
+        <v>089619447136</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>JM04E1106085</v>
+      </c>
+      <c r="B24" t="str">
+        <v>FANY RAHMADANY</v>
+      </c>
+      <c r="C24" t="str">
+        <v>N1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0895414334844</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>JM04E1108177</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ANGGIA MARETA SARI</v>
+      </c>
+      <c r="C25" t="str">
+        <v>C9</v>
+      </c>
+      <c r="D25" t="str"/>
+      <c r="E25" t="str">
+        <v>08561760910</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>JM04E1109152</v>
+      </c>
+      <c r="B26" t="str">
+        <v>NANDA NURHIKMAH</v>
+      </c>
+      <c r="C26" t="str">
+        <v>G4</v>
+      </c>
+      <c r="D26" t="str"/>
+      <c r="E26" t="str">
+        <v>0895346222013</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>JM04E1169594</v>
+      </c>
+      <c r="B27" t="str">
+        <v>DEBI BARETO</v>
+      </c>
+      <c r="C27" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D27" t="str"/>
+      <c r="E27" t="str">
+        <v>6283898148350</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>JM04E1169602</v>
+      </c>
+      <c r="B28" t="str">
+        <v>SAHRUL SAUDIK</v>
+      </c>
+      <c r="C28" t="str">
+        <v>P4</v>
+      </c>
+      <c r="D28" t="str"/>
+      <c r="E28" t="str">
+        <v>6283878364260</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>JM04E1171858</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PUTRI MULYANSARI</v>
+      </c>
+      <c r="C29" t="str">
+        <v>P4</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>6287804683474</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>JM04E1174694</v>
+      </c>
+      <c r="B30" t="str">
+        <v>DHEA MARCELENA</v>
+      </c>
+      <c r="C30" t="str">
+        <v>E7</v>
+      </c>
+      <c r="D30" t="str"/>
+      <c r="E30" t="str">
+        <v>6289601202139</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>JM04E1175298</v>
+      </c>
+      <c r="B31" t="str">
+        <v>MILANDA NURUL HIDAYAH</v>
+      </c>
+      <c r="C31" t="str">
+        <v>P4</v>
+      </c>
+      <c r="D31" t="str"/>
+      <c r="E31" t="str">
+        <v>081310489577</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>JM04E1180519</v>
+      </c>
+      <c r="B32" t="str">
+        <v>UTI ARIFA HUDIYONO</v>
+      </c>
+      <c r="C32" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <v>6289630313794</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>JM04E1183305</v>
+      </c>
+      <c r="B33" t="str">
+        <v>LILIS</v>
+      </c>
+      <c r="C33" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D33" t="str"/>
+      <c r="E33" t="str">
+        <v>62895610843940</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>JM04E1183353</v>
+      </c>
+      <c r="B34" t="str">
+        <v>MUHTADIN</v>
+      </c>
+      <c r="C34" t="str">
+        <v>P9</v>
+      </c>
+      <c r="D34" t="str"/>
+      <c r="E34" t="str">
+        <v>6287773378967</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>JM04E1361601</v>
+      </c>
+      <c r="B35" t="str">
+        <v>YUDIUS HARIANSYAH NABABAN</v>
+      </c>
+      <c r="C35" t="str">
+        <v>99</v>
+      </c>
+      <c r="D35" t="str"/>
+      <c r="E35" t="str">
+        <v>08871213177</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>JM04E1376762</v>
+      </c>
+      <c r="B36" t="str">
+        <v>RISMAWATI</v>
+      </c>
+      <c r="C36" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D36" t="str"/>
+      <c r="E36" t="str">
+        <v>087773337377</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>JM04E1376798</v>
+      </c>
+      <c r="B37" t="str">
+        <v>YANAH ARDILAH</v>
+      </c>
+      <c r="C37" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D37" t="str"/>
+      <c r="E37" t="str">
+        <v>089513101266</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>JM04E1376801</v>
+      </c>
+      <c r="B38" t="str">
+        <v>SITI NURAENI</v>
+      </c>
+      <c r="C38" t="str">
+        <v>95</v>
+      </c>
+      <c r="D38" t="str"/>
+      <c r="E38" t="str">
+        <v>082261908191</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>JM04E1381149</v>
+      </c>
+      <c r="B39" t="str">
+        <v>DAUMI</v>
+      </c>
+      <c r="C39" t="str">
+        <v>99</v>
+      </c>
+      <c r="D39" t="str"/>
+      <c r="E39" t="str">
+        <v>081519497983</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>JM04E1384755</v>
+      </c>
+      <c r="B40" t="str">
+        <v>RATNO</v>
+      </c>
+      <c r="C40" t="str">
+        <v>99</v>
+      </c>
+      <c r="D40" t="str"/>
+      <c r="E40" t="str">
+        <v>085711273792</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>JM41E1825638</v>
+      </c>
+      <c r="B41" t="str">
+        <v>SENASEP NUR AHDRI</v>
+      </c>
+      <c r="C41" t="str">
+        <v>L7</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>082221157520</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>JM41E1829610</v>
+      </c>
+      <c r="B42" t="str">
+        <v>MUNIROH</v>
+      </c>
+      <c r="C42" t="str">
+        <v>E7</v>
+      </c>
+      <c r="D42" t="str"/>
+      <c r="E42" t="str">
+        <v>089629661734</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>JM41E1855820</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ELIH</v>
+      </c>
+      <c r="C43" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>089637403542</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>JM51E2018065</v>
+      </c>
+      <c r="B44" t="str">
+        <v>SLAMET ARYANTO MARBUN</v>
+      </c>
+      <c r="C44" t="str">
+        <v>N4</v>
+      </c>
+      <c r="D44" t="str"/>
+      <c r="E44" t="str">
+        <v>08886117911</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>JM51E2061009</v>
+      </c>
+      <c r="B45" t="str">
+        <v>MUHAMMAD FAHRIL</v>
+      </c>
+      <c r="C45" t="str">
+        <v>L7</v>
+      </c>
+      <c r="D45" t="str"/>
+      <c r="E45" t="str">
+        <v>089636374382</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>JM51E2097758</v>
+      </c>
+      <c r="B46" t="str">
+        <v>YAYAT SUPRIYATIN</v>
+      </c>
+      <c r="C46" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D46" t="str"/>
+      <c r="E46" t="str">
+        <v>085215474618</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>JM51E2131387</v>
+      </c>
+      <c r="B47" t="str">
+        <v>SARIPUDIN</v>
+      </c>
+      <c r="C47" t="str">
+        <v>m5</v>
+      </c>
+      <c r="D47" t="str"/>
+      <c r="E47" t="str">
+        <v>081315837757</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>JM51E2133374</v>
+      </c>
+      <c r="B48" t="str">
+        <v>PUTRI SETIYAWATI</v>
+      </c>
+      <c r="C48" t="str">
+        <v>A9</v>
+      </c>
+      <c r="D48" t="str"/>
+      <c r="E48" t="str">
+        <v>085719369992</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>JM51E2133387</v>
+      </c>
+      <c r="B49" t="str">
+        <v>AJENG</v>
+      </c>
+      <c r="C49" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D49" t="str"/>
+      <c r="E49" t="str">
+        <v>083174494468</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>JM51E2135368</v>
+      </c>
+      <c r="B50" t="str">
+        <v>IWAN</v>
+      </c>
+      <c r="C50" t="str">
+        <v>J7</v>
+      </c>
+      <c r="D50" t="str"/>
+      <c r="E50" t="str">
+        <v>0895328897797</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>JM51E2135413</v>
+      </c>
+      <c r="B51" t="str">
+        <v>MADHADI</v>
+      </c>
+      <c r="C51" t="str">
+        <v>J6</v>
+      </c>
+      <c r="D51" t="str"/>
+      <c r="E51" t="str">
+        <v>081286498517</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>JM81E1835274</v>
+      </c>
+      <c r="B52" t="str">
+        <v>ONI MAYSAROH</v>
+      </c>
+      <c r="C52" t="str">
+        <v>J8</v>
+      </c>
+      <c r="D52" t="str"/>
+      <c r="E52" t="str">
+        <v>0895424034624</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>JM81E1837388</v>
+      </c>
+      <c r="B53" t="str">
+        <v>DEVI DAMAYANTI</v>
+      </c>
+      <c r="C53" t="str">
+        <v>J6</v>
+      </c>
+      <c r="D53" t="str"/>
+      <c r="E53" t="str">
+        <v>085691935518</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>JM81E1894491</v>
+      </c>
+      <c r="B54" t="str">
+        <v>TAUFIK HIDAYATTULLOH</v>
+      </c>
+      <c r="C54" t="str">
+        <v>O1</v>
+      </c>
+      <c r="D54" t="str"/>
+      <c r="E54" t="str">
+        <v>085693717290</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>JM81E1904441</v>
+      </c>
+      <c r="B55" t="str">
+        <v>SANDY PRATAMA</v>
+      </c>
+      <c r="C55" t="str">
+        <v>N5</v>
+      </c>
+      <c r="D55" t="str"/>
+      <c r="E55" t="str">
+        <v>089668189743</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>JM81E1971343</v>
+      </c>
+      <c r="B56" t="str">
+        <v>SOLIKHIN</v>
+      </c>
+      <c r="C56" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D56" t="str"/>
+      <c r="E56" t="str">
+        <v>082112951900</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>JM81E1973508</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SARTIKA</v>
+      </c>
+      <c r="C57" t="str">
+        <v>J7</v>
+      </c>
+      <c r="D57" t="str"/>
+      <c r="E57" t="str">
+        <v>081323947311</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>JM81E2233532</v>
+      </c>
+      <c r="B58" t="str">
+        <v>LAYLY DWI PUTRI KINASIH</v>
+      </c>
+      <c r="C58" t="str">
+        <v>M2</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>08983640161</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>JM81E2238013</v>
+      </c>
+      <c r="B59" t="str">
+        <v>NASTORI</v>
+      </c>
+      <c r="C59" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D59" t="str"/>
+      <c r="E59" t="str">
+        <v>081213924323</v>
+      </c>
+      <c r="F59" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>JM81E2238149</v>
+      </c>
+      <c r="B60" t="str">
+        <v>SIROJUDIN</v>
+      </c>
+      <c r="C60" t="str">
+        <v>M7</v>
+      </c>
+      <c r="D60" t="str"/>
+      <c r="E60" t="str">
+        <v>085772776189</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>JM81E2243377</v>
+      </c>
+      <c r="B61" t="str">
+        <v>ROMADONA</v>
+      </c>
+      <c r="C61" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D61" t="str"/>
+      <c r="E61" t="str">
+        <v>085281909407</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>JM81E2245871</v>
+      </c>
+      <c r="B62" t="str">
+        <v>SITI ELAH</v>
+      </c>
+      <c r="C62" t="str">
+        <v>K1</v>
+      </c>
+      <c r="D62" t="str"/>
+      <c r="E62" t="str">
+        <v>085892666662</v>
+      </c>
+      <c r="F62" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>JM81E2288066</v>
+      </c>
+      <c r="B63" t="str">
+        <v>HAMIDIAH</v>
+      </c>
+      <c r="C63" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D63" t="str"/>
+      <c r="E63" t="str">
+        <v>081311405764</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>JM81E2326326</v>
+      </c>
+      <c r="B64" t="str">
+        <v>RISNA PELAYATI</v>
+      </c>
+      <c r="C64" t="str">
+        <v>P4</v>
+      </c>
+      <c r="D64" t="str"/>
+      <c r="E64" t="str">
+        <v>6281513742787</v>
+      </c>
+      <c r="F64" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>JM81E2334137</v>
+      </c>
+      <c r="B65" t="str">
+        <v>LANI</v>
+      </c>
+      <c r="C65" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D65" t="str"/>
+      <c r="E65" t="str">
+        <v>6287888860442</v>
+      </c>
+      <c r="F65" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>JM81E2334275</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ERNADA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D66" t="str"/>
+      <c r="E66" t="str">
+        <v>6285885375324</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>JM81E2342708</v>
+      </c>
+      <c r="B67" t="str">
+        <v>TUMPAK MARBUN</v>
+      </c>
+      <c r="C67" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D67" t="str"/>
+      <c r="E67" t="str">
+        <v>6288210030074</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>JM81E2342726</v>
+      </c>
+      <c r="B68" t="str">
+        <v>NASTARI</v>
+      </c>
+      <c r="C68" t="str">
+        <v>32</v>
+      </c>
+      <c r="D68" t="str"/>
+      <c r="E68" t="str">
+        <v>6285711435882</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>JM81E2348511</v>
+      </c>
+      <c r="B69" t="str">
+        <v>ABDUL HOIR</v>
+      </c>
+      <c r="C69" t="str">
+        <v>C9</v>
+      </c>
+      <c r="D69" t="str"/>
+      <c r="E69" t="str">
+        <v>6285719292253</v>
+      </c>
+      <c r="F69" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>JM81E2348621</v>
+      </c>
+      <c r="B70" t="str">
+        <v>MUHAMMAD SYUFI</v>
+      </c>
+      <c r="C70" t="str">
+        <v>N9</v>
+      </c>
+      <c r="D70" t="str">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <v>6283898855165</v>
+      </c>
+      <c r="F70" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>JM81E2522270</v>
+      </c>
+      <c r="B71" t="str">
+        <v>HERMANTO</v>
+      </c>
+      <c r="C71" t="str">
+        <v>R3</v>
+      </c>
+      <c r="D71" t="str"/>
+      <c r="E71" t="str">
+        <v>089517720663</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>JM81E2534722</v>
+      </c>
+      <c r="B72" t="str">
+        <v>JUMARIAH</v>
+      </c>
+      <c r="C72" t="str">
+        <v>R3</v>
+      </c>
+      <c r="D72" t="str"/>
+      <c r="E72" t="str">
+        <v>088808303348</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>JM81E2543879</v>
+      </c>
+      <c r="B73" t="str">
+        <v>SUHERNI</v>
+      </c>
+      <c r="C73" t="str">
+        <v>R2</v>
+      </c>
+      <c r="D73" t="str"/>
+      <c r="E73" t="str">
+        <v>085711846029</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>JM82E1475658</v>
+      </c>
+      <c r="B74" t="str">
+        <v>SITI NURLAELA</v>
+      </c>
+      <c r="C74" t="str">
+        <v>N4</v>
+      </c>
+      <c r="D74" t="str">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <v>081212815244</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>JM82E1476649</v>
+      </c>
+      <c r="B75" t="str">
+        <v>SAHYUDI</v>
+      </c>
+      <c r="C75" t="str">
+        <v>69</v>
+      </c>
+      <c r="D75" t="str"/>
+      <c r="E75" t="str">
+        <v>083811773551</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>JM82E1763139</v>
+      </c>
+      <c r="B76" t="str">
+        <v>MUHAMAD FARID AL KURNI</v>
+      </c>
+      <c r="C76" t="str">
+        <v>E7</v>
+      </c>
+      <c r="D76" t="str"/>
+      <c r="E76" t="str">
+        <v>6289653844312</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>JM82E1764941</v>
+      </c>
+      <c r="B77" t="str">
+        <v>LEANDRO SUBROTO DWI SANDRO</v>
+      </c>
+      <c r="C77" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D77" t="str"/>
+      <c r="E77" t="str">
+        <v>6282110709674</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>JM82E1818020</v>
+      </c>
+      <c r="B78" t="str">
+        <v>PUTUT JOKO UMBARAN</v>
+      </c>
+      <c r="C78" t="str">
+        <v>R2</v>
+      </c>
+      <c r="D78" t="str"/>
+      <c r="E78" t="str">
+        <v>08988349998</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>JM82E1843088</v>
+      </c>
+      <c r="B79" t="str">
+        <v>RIVALDY MAFTHU IKHSAN</v>
+      </c>
+      <c r="C79" t="str">
+        <v>J6</v>
+      </c>
+      <c r="D79" t="str"/>
+      <c r="E79" t="str">
+        <v>085173424376</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>JM82E1866755</v>
+      </c>
+      <c r="B80" t="str">
+        <v>AANG KURNAEPI</v>
+      </c>
+      <c r="C80" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D80" t="str"/>
+      <c r="E80" t="str">
+        <v>083894087833</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>JM82E1870669</v>
+      </c>
+      <c r="B81" t="str">
+        <v>NUR ASIYAH</v>
+      </c>
+      <c r="C81" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D81" t="str"/>
+      <c r="E81" t="str">
+        <v>081247894874</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>JM82E1878321</v>
+      </c>
+      <c r="B82" t="str">
+        <v>EVEN DIARTO ARITONANG</v>
+      </c>
+      <c r="C82" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D82" t="str"/>
+      <c r="E82" t="str">
+        <v>082122270333</v>
+      </c>
+      <c r="F82" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>JM91E1974935</v>
+      </c>
+      <c r="B83" t="str">
+        <v>POPO HARDIYANTO</v>
+      </c>
+      <c r="C83" t="str">
+        <v>M2</v>
+      </c>
+      <c r="D83" t="str">
+        <v>5</v>
+      </c>
+      <c r="E83" t="str">
+        <v>081319186158</v>
+      </c>
+      <c r="F83" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>JM91E1983064</v>
+      </c>
+      <c r="B84" t="str">
+        <v>LIE HARRY INDRAWAN</v>
+      </c>
+      <c r="C84" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D84" t="str">
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <v>081928288739</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>JM91E2131807</v>
+      </c>
+      <c r="B85" t="str">
+        <v>SAIPUL</v>
+      </c>
+      <c r="C85" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D85" t="str"/>
+      <c r="E85" t="str">
+        <v>081717176653</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>JM91E2176276</v>
+      </c>
+      <c r="B86" t="str">
+        <v>MOHAMAD ALI MUSYAFA</v>
+      </c>
+      <c r="C86" t="str">
+        <v>N4</v>
+      </c>
+      <c r="D86" t="str"/>
+      <c r="E86" t="str">
+        <v>081295912351</v>
+      </c>
+      <c r="F86" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>JM91E2190807</v>
+      </c>
+      <c r="B87" t="str">
+        <v>DANI ANDRIYAN</v>
+      </c>
+      <c r="C87" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D87" t="str">
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <v>081289753728</v>
+      </c>
+      <c r="F87" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>JM91E2192970</v>
+      </c>
+      <c r="B88" t="str">
+        <v>JAJANG SUNARIS</v>
+      </c>
+      <c r="C88" t="str">
+        <v>N4</v>
+      </c>
+      <c r="D88" t="str">
+        <v>4</v>
+      </c>
+      <c r="E88" t="str">
+        <v>081212417033</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>JM91E2193693</v>
+      </c>
+      <c r="B89" t="str">
+        <v>AMBRI</v>
+      </c>
+      <c r="C89" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D89" t="str"/>
+      <c r="E89" t="str">
+        <v>085730324708</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>JM91E2195324</v>
+      </c>
+      <c r="B90" t="str">
+        <v>RAHMATUN</v>
+      </c>
+      <c r="C90" t="str">
+        <v>C6</v>
+      </c>
+      <c r="D90" t="str"/>
+      <c r="E90" t="str">
+        <v>085745839963</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>JM91E2195743</v>
+      </c>
+      <c r="B91" t="str">
+        <v>SADIYAH</v>
+      </c>
+      <c r="C91" t="str">
+        <v>J6</v>
+      </c>
+      <c r="D91" t="str"/>
+      <c r="E91" t="str">
+        <v>085951811388</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>JM91E2196068</v>
+      </c>
+      <c r="B92" t="str">
+        <v>ANINDYA FAISA AMANDA</v>
+      </c>
+      <c r="C92" t="str">
+        <v>O1</v>
+      </c>
+      <c r="D92" t="str">
+        <v>4</v>
+      </c>
+      <c r="E92" t="str">
+        <v>082231834825</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>JM91E2573810</v>
+      </c>
+      <c r="B93" t="str">
+        <v>HUSEN HILMI</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D93" t="str"/>
+      <c r="E93" t="str">
+        <v>083806128808</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>JM91E2603382</v>
+      </c>
+      <c r="B94" t="str">
+        <v>NUR WALIDATUL JANAH</v>
+      </c>
+      <c r="C94" t="str">
+        <v>N9</v>
+      </c>
+      <c r="D94" t="str">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <v>085718260160</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>JM91E2605472</v>
+      </c>
+      <c r="B95" t="str">
+        <v>SANDRA HAKIM</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Q6</v>
+      </c>
+      <c r="D95" t="str"/>
+      <c r="E95" t="str">
+        <v>081398010054</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>JM91E2605571</v>
+      </c>
+      <c r="B96" t="str">
+        <v>EDWARD ALAN SAPUTRA</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Q6</v>
+      </c>
+      <c r="D96" t="str"/>
+      <c r="E96" t="str">
+        <v>081391461828</v>
+      </c>
+      <c r="F96" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>JM91E2616457</v>
+      </c>
+      <c r="B97" t="str">
+        <v>HANS BENIAH LIUS HANJAYA</v>
+      </c>
+      <c r="C97" t="str">
+        <v>N9</v>
+      </c>
+      <c r="D97" t="str"/>
+      <c r="E97" t="str">
+        <v>081382988667</v>
+      </c>
+      <c r="F97" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>JM91E2671389</v>
+      </c>
+      <c r="B98" t="str">
+        <v>SIGIT TRIWAHYUDI</v>
+      </c>
+      <c r="C98" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D98" t="str"/>
+      <c r="E98" t="str">
+        <v>085210964223</v>
+      </c>
+      <c r="F98" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>JM91E2677270</v>
+      </c>
+      <c r="B99" t="str">
+        <v>SOPYAN HADI</v>
+      </c>
+      <c r="C99" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D99" t="str"/>
+      <c r="E99" t="str">
+        <v>088294718653</v>
+      </c>
+      <c r="F99" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>JM91E2677485</v>
+      </c>
+      <c r="B100" t="str">
+        <v>HERU BIN ADIN</v>
+      </c>
+      <c r="C100" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D100" t="str">
+        <v>1</v>
+      </c>
+      <c r="E100" t="str">
+        <v>081617032750</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>JM91E2710560</v>
+      </c>
+      <c r="B101" t="str">
+        <v>HANIFAH BALQIS</v>
+      </c>
+      <c r="C101" t="str">
+        <v>P4</v>
+      </c>
+      <c r="D101" t="str"/>
+      <c r="E101" t="str">
+        <v>6281294418035</v>
+      </c>
+      <c r="F101" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>JM91E2740026</v>
+      </c>
+      <c r="B102" t="str">
+        <v>EKA SAPUTRA</v>
+      </c>
+      <c r="C102" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D102" t="str"/>
+      <c r="E102" t="str">
+        <v>6281280174296</v>
+      </c>
+      <c r="F102" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>JM91E2740136</v>
+      </c>
+      <c r="B103" t="str">
+        <v>MUHAMAD SITA REZA MAULANA AKBAR</v>
+      </c>
+      <c r="C103" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D103" t="str"/>
+      <c r="E103" t="str">
+        <v>6281911284414</v>
+      </c>
+      <c r="F103" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>JM91E2740534</v>
+      </c>
+      <c r="B104" t="str">
+        <v>DIDIK SUHENDRI</v>
+      </c>
+      <c r="C104" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D104" t="str">
+        <v>4</v>
+      </c>
+      <c r="E104" t="str">
+        <v>6285778465747</v>
+      </c>
+      <c r="F104" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>JM91E2748597</v>
+      </c>
+      <c r="B105" t="str">
+        <v>MUHAMMAD SAIFUL BAHRI</v>
+      </c>
+      <c r="C105" t="str">
+        <v>m9</v>
+      </c>
+      <c r="D105" t="str"/>
+      <c r="E105" t="str">
+        <v>6285697088013</v>
+      </c>
+      <c r="F105" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>JM91E2753504</v>
+      </c>
+      <c r="B106" t="str">
+        <v>MUTIA</v>
+      </c>
+      <c r="C106" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D106" t="str"/>
+      <c r="E106" t="str">
+        <v>6285697843643</v>
+      </c>
+      <c r="F106" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>JM91E2755243</v>
+      </c>
+      <c r="B107" t="str">
+        <v>RUKANTI MANURUNG</v>
+      </c>
+      <c r="C107" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D107" t="str"/>
+      <c r="E107" t="str">
+        <v>628561716504</v>
+      </c>
+      <c r="F107" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>JM91E2756797</v>
+      </c>
+      <c r="B108" t="str">
+        <v>MUHAMMAD FARIZ</v>
+      </c>
+      <c r="C108" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D108" t="str"/>
+      <c r="E108" t="str">
+        <v>6289630570547</v>
+      </c>
+      <c r="F108" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>JM91E2763233</v>
+      </c>
+      <c r="B109" t="str">
+        <v>ISMAIL</v>
+      </c>
+      <c r="C109" t="str">
+        <v>73</v>
+      </c>
+      <c r="D109" t="str">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <v>6285781179128</v>
+      </c>
+      <c r="F109" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>JM91E2763842</v>
+      </c>
+      <c r="B110" t="str">
+        <v>RITA CANDRA</v>
+      </c>
+      <c r="C110" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D110" t="str"/>
+      <c r="E110" t="str">
+        <v>6281386900124</v>
+      </c>
+      <c r="F110" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>JM91E2764835</v>
+      </c>
+      <c r="B111" t="str">
+        <v>NAESYA FEANI</v>
+      </c>
+      <c r="C111" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D111" t="str"/>
+      <c r="E111" t="str">
+        <v>089616265590</v>
+      </c>
+      <c r="F111" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>JM91E2765309</v>
+      </c>
+      <c r="B112" t="str">
+        <v>SELVIYANA</v>
+      </c>
+      <c r="C112" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D112" t="str"/>
+      <c r="E112" t="str">
+        <v>62895340805662</v>
+      </c>
+      <c r="F112" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>JM91E2768120</v>
+      </c>
+      <c r="B113" t="str">
+        <v>KRIS RIYANTO ATMAJA</v>
+      </c>
+      <c r="C113" t="str">
+        <v>p4</v>
+      </c>
+      <c r="D113" t="str">
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <v>628871305923</v>
+      </c>
+      <c r="F113" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>JM91E2772646</v>
+      </c>
+      <c r="B114" t="str">
+        <v>EUIS PARIHAH</v>
+      </c>
+      <c r="C114" t="str">
+        <v>o3</v>
+      </c>
+      <c r="D114" t="str"/>
+      <c r="E114" t="str">
+        <v>6288296492401</v>
+      </c>
+      <c r="F114" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>JM91E2773885</v>
+      </c>
+      <c r="B115" t="str">
+        <v>MARIO MARNADETA KINDA</v>
+      </c>
+      <c r="C115" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D115" t="str"/>
+      <c r="E115" t="str">
+        <v>6281281817047</v>
+      </c>
+      <c r="F115" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>JM91E2778255</v>
+      </c>
+      <c r="B116" t="str">
+        <v>HALIMA</v>
+      </c>
+      <c r="C116" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D116" t="str">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <v>087880058732</v>
+      </c>
+      <c r="F116" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>JM91E2779566</v>
+      </c>
+      <c r="B117" t="str">
+        <v>SITI KHOLIS MAULANDARI</v>
+      </c>
+      <c r="C117" t="str">
+        <v>o3</v>
+      </c>
+      <c r="D117" t="str"/>
+      <c r="E117" t="str">
+        <v>6281286311098</v>
+      </c>
+      <c r="F117" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>JM91E2962139</v>
+      </c>
+      <c r="B118" t="str">
+        <v>SYATHORI</v>
+      </c>
+      <c r="C118" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D118" t="str"/>
+      <c r="E118" t="str">
+        <v>081286577426</v>
+      </c>
+      <c r="F118" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>JM91E3053956</v>
+      </c>
+      <c r="B119" t="str">
+        <v>DINA</v>
+      </c>
+      <c r="C119" t="str">
+        <v>M9</v>
+      </c>
+      <c r="D119" t="str"/>
+      <c r="E119" t="str">
+        <v>08998140425</v>
+      </c>
+      <c r="F119" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>JM91E3054018</v>
+      </c>
+      <c r="B120" t="str">
+        <v>ROHANA</v>
+      </c>
+      <c r="C120" t="str">
+        <v>R1</v>
+      </c>
+      <c r="D120" t="str"/>
+      <c r="E120" t="str">
+        <v>085714104240</v>
+      </c>
+      <c r="F120" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>JM91E3054214</v>
+      </c>
+      <c r="B121" t="str">
+        <v>AHMAD SAYADI</v>
+      </c>
+      <c r="C121" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D121" t="str">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <v>085310057433</v>
+      </c>
+      <c r="F121" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>JMB1E1006836</v>
+      </c>
+      <c r="B122" t="str">
+        <v>TOHBIR</v>
+      </c>
+      <c r="C122" t="str">
+        <v>G8</v>
+      </c>
+      <c r="D122" t="str">
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <v>0895385096712</v>
+      </c>
+      <c r="F122" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>JMC1E1051270</v>
+      </c>
+      <c r="B123" t="str">
+        <v>RIZKI ARDIANSYAH</v>
+      </c>
+      <c r="C123" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D123" t="str"/>
+      <c r="E123" t="str">
+        <v>085893216368</v>
+      </c>
+      <c r="F123" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>JMC1E1067349</v>
+      </c>
+      <c r="B124" t="str">
+        <v>MUKHAMAD ALI KHUSEN</v>
+      </c>
+      <c r="C124" t="str">
+        <v>93</v>
+      </c>
+      <c r="D124" t="str"/>
+      <c r="E124" t="str">
+        <v>083878458010</v>
+      </c>
+      <c r="F124" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>JMC1E1068290</v>
+      </c>
+      <c r="B125" t="str">
+        <v>ADE SUHENDI</v>
+      </c>
+      <c r="C125" t="str">
+        <v>N9</v>
+      </c>
+      <c r="D125" t="str">
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <v>085210657675</v>
+      </c>
+      <c r="F125" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>JMC1E1069975</v>
+      </c>
+      <c r="B126" t="str">
+        <v>SRI RAHAYU NENGSIH</v>
+      </c>
+      <c r="C126" t="str">
+        <v>93</v>
+      </c>
+      <c r="D126" t="str">
+        <v>1</v>
+      </c>
+      <c r="E126" t="str">
+        <v>087777609252</v>
+      </c>
+      <c r="F126" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>JMC1E1088050</v>
+      </c>
+      <c r="B127" t="str">
+        <v>SRI RAMA WIJAYA,S.PD.</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D127" t="str"/>
+      <c r="E127" t="str">
+        <v>6285771040167</v>
+      </c>
+      <c r="F127" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>JMC1E1092638</v>
+      </c>
+      <c r="B128" t="str">
+        <v>HERLAMBANG WIBOWO</v>
+      </c>
+      <c r="C128" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D128" t="str"/>
+      <c r="E128" t="str">
+        <v>6287802000458</v>
+      </c>
+      <c r="F128" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>JMD1E1078775</v>
+      </c>
+      <c r="B129" t="str">
+        <v>KARTOMO</v>
+      </c>
+      <c r="C129" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D129" t="str"/>
+      <c r="E129" t="str">
+        <v>085312335054</v>
+      </c>
+      <c r="F129" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>JMD1E1080140</v>
+      </c>
+      <c r="B130" t="str">
+        <v>EEN HERNAWATI</v>
+      </c>
+      <c r="C130" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D130" t="str">
+        <v>1</v>
+      </c>
+      <c r="E130" t="str">
+        <v>082112449825</v>
+      </c>
+      <c r="F130" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>JMD1E1081113</v>
+      </c>
+      <c r="B131" t="str">
+        <v>MAHARLENI EKAWATI</v>
+      </c>
+      <c r="C131" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D131" t="str"/>
+      <c r="E131" t="str">
+        <v>081389508221</v>
+      </c>
+      <c r="F131" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>JMD1E1097690</v>
+      </c>
+      <c r="B132" t="str">
+        <v>NOVITASARI</v>
+      </c>
+      <c r="C132" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D132" t="str"/>
+      <c r="E132" t="str">
+        <v>087743866112</v>
+      </c>
+      <c r="F132" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>JMD1E1098748</v>
+      </c>
+      <c r="B133" t="str">
+        <v>IMAM DARMAWAN</v>
+      </c>
+      <c r="C133" t="str">
+        <v>K1</v>
+      </c>
+      <c r="D133" t="str"/>
+      <c r="E133" t="str">
+        <v>08888990368</v>
+      </c>
+      <c r="F133" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>JMD1E1099548</v>
+      </c>
+      <c r="B134" t="str">
+        <v>ARYA SAPUTRA</v>
+      </c>
+      <c r="C134" t="str">
+        <v>C9</v>
+      </c>
+      <c r="D134" t="str"/>
+      <c r="E134" t="str">
+        <v>081318820929</v>
+      </c>
+      <c r="F134" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>JMD1E1099654</v>
+      </c>
+      <c r="B135" t="str">
+        <v>IYUS</v>
+      </c>
+      <c r="C135" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D135" t="str"/>
+      <c r="E135" t="str">
+        <v>085700819640</v>
+      </c>
+      <c r="F135" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>JMD1E1099881</v>
+      </c>
+      <c r="B136" t="str">
+        <v>BAHRUDIN</v>
+      </c>
+      <c r="C136" t="str">
+        <v>G8</v>
+      </c>
+      <c r="D136" t="str"/>
+      <c r="E136" t="str">
+        <v>089643929039</v>
+      </c>
+      <c r="F136" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>JMD1E1133104</v>
+      </c>
+      <c r="B137" t="str">
+        <v>ROSIDAH</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D137" t="str"/>
+      <c r="E137" t="str">
+        <v>6289652387873</v>
+      </c>
+      <c r="F137" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>JMD1E1133110</v>
+      </c>
+      <c r="B138" t="str">
+        <v>LINAH</v>
+      </c>
+      <c r="C138" t="str">
+        <v>O3</v>
+      </c>
+      <c r="D138" t="str"/>
+      <c r="E138" t="str">
+        <v>6281585722061</v>
+      </c>
+      <c r="F138" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>KF01E1059264</v>
+      </c>
+      <c r="B139" t="str">
+        <v>DWI HERMAWAN</v>
+      </c>
+      <c r="C139" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D139" t="str"/>
+      <c r="E139" t="str">
+        <v>089602807941</v>
+      </c>
+      <c r="F139" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>KF01E1060057</v>
+      </c>
+      <c r="B140" t="str">
+        <v>IKBAL FILKHOIR</v>
+      </c>
+      <c r="C140" t="str">
+        <v>95</v>
+      </c>
+      <c r="D140" t="str"/>
+      <c r="E140" t="str">
+        <v>088905000318</v>
+      </c>
+      <c r="F140" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>KF01E1062518</v>
+      </c>
+      <c r="B141" t="str">
+        <v>UYAN SUANDI</v>
+      </c>
+      <c r="C141" t="str">
+        <v>R5</v>
+      </c>
+      <c r="D141" t="str">
+        <v>4</v>
+      </c>
+      <c r="E141" t="str">
+        <v>081289833984</v>
+      </c>
+      <c r="F141" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>KF01E1063961</v>
+      </c>
+      <c r="B142" t="str">
+        <v>ADI MOHAMAD TUBAGUS</v>
+      </c>
+      <c r="C142" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D142" t="str"/>
+      <c r="E142" t="str">
+        <v>085891062139</v>
+      </c>
+      <c r="F142" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>KF01E1149436</v>
+      </c>
+      <c r="B143" t="str">
+        <v>ANITA PRILYANTIKA</v>
+      </c>
+      <c r="C143" t="str">
+        <v>L5</v>
+      </c>
+      <c r="D143" t="str"/>
+      <c r="E143" t="str">
+        <v>08987079525</v>
+      </c>
+      <c r="F143" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>KF01E1150355</v>
+      </c>
+      <c r="B144" t="str">
+        <v>DWI ANGGRAINI</v>
+      </c>
+      <c r="C144" t="str">
+        <v>32</v>
+      </c>
+      <c r="D144" t="str"/>
+      <c r="E144" t="str">
+        <v>081717117332</v>
+      </c>
+      <c r="F144" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>KF01E1302119</v>
+      </c>
+      <c r="B145" t="str">
+        <v>USMA</v>
+      </c>
+      <c r="C145" t="str">
+        <v>P1</v>
+      </c>
+      <c r="D145" t="str"/>
+      <c r="E145" t="str">
+        <v>6288224689223</v>
+      </c>
+      <c r="F145" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>KF01E1311820</v>
+      </c>
+      <c r="B146" t="str">
+        <v>SUPARNO</v>
+      </c>
+      <c r="C146" t="str">
+        <v>32</v>
+      </c>
+      <c r="D146" t="str"/>
+      <c r="E146" t="str">
+        <v>6281314811198</v>
+      </c>
+      <c r="F146" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>KF01E1440188</v>
+      </c>
+      <c r="B147" t="str">
+        <v>DEWI ERMAWATI</v>
+      </c>
+      <c r="C147" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D147" t="str"/>
+      <c r="E147" t="str">
+        <v>081212838380</v>
+      </c>
+      <c r="F147" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>KF01E1449393</v>
+      </c>
+      <c r="B148" t="str">
+        <v>WIWI YUNINGSIH</v>
+      </c>
+      <c r="C148" t="str">
+        <v>M5</v>
+      </c>
+      <c r="D148" t="str"/>
+      <c r="E148" t="str">
+        <v>089530330810</v>
+      </c>
+      <c r="F148" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>KF41E2442310</v>
+      </c>
+      <c r="B149" t="str">
+        <v>LIA AMELIA</v>
+      </c>
+      <c r="C149" t="str">
+        <v>O1</v>
+      </c>
+      <c r="D149" t="str"/>
+      <c r="E149" t="str">
+        <v>087764933101</v>
+      </c>
+      <c r="F149" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>KF71E1210784</v>
+      </c>
+      <c r="B150" t="str">
+        <v>WAHYU SUHENDI</v>
+      </c>
+      <c r="C150" t="str">
+        <v>C9</v>
+      </c>
+      <c r="D150" t="str"/>
+      <c r="E150" t="str">
+        <v>081285005552</v>
+      </c>
+      <c r="F150" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>KF71E1273299</v>
+      </c>
+      <c r="B151" t="str">
+        <v>JUN SAPUTRA</v>
+      </c>
+      <c r="C151" t="str">
+        <v>G7</v>
+      </c>
+      <c r="D151" t="str">
+        <v>1</v>
+      </c>
+      <c r="E151" t="str">
+        <v>087818459195</v>
+      </c>
+      <c r="F151" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>KF71E1274347</v>
+      </c>
+      <c r="B152" t="str">
+        <v>VERONICA</v>
+      </c>
+      <c r="C152" t="str">
+        <v>93</v>
+      </c>
+      <c r="D152" t="str">
+        <v>1</v>
+      </c>
+      <c r="E152" t="str">
+        <v>081290278006</v>
+      </c>
+      <c r="F152" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>KF71E1275085</v>
+      </c>
+      <c r="B153" t="str">
+        <v>IYAN ROYANI</v>
+      </c>
+      <c r="C153" t="str">
+        <v>g7</v>
+      </c>
+      <c r="D153" t="str">
+        <v>1</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0895383165304</v>
+      </c>
+      <c r="F153" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>KF71E1437635</v>
+      </c>
+      <c r="B154" t="str">
+        <v>NAHRUDIN JAYA</v>
+      </c>
+      <c r="C154" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2</v>
+      </c>
+      <c r="E154" t="str">
+        <v>085715262702</v>
+      </c>
+      <c r="F154" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>KF71E1438598</v>
+      </c>
+      <c r="B155" t="str">
+        <v>PITRIANA NURPAIDAH</v>
+      </c>
+      <c r="C155" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D155" t="str"/>
+      <c r="E155" t="str">
+        <v>085810822810</v>
+      </c>
+      <c r="F155" t="str">
+        <v>2024-11-14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>KF71E1485429</v>
+      </c>
+      <c r="B156" t="str">
+        <v>SISKA VIONITA</v>
+      </c>
+      <c r="C156" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D156" t="str"/>
+      <c r="E156" t="str">
+        <v>6285947207312</v>
+      </c>
+      <c r="F156" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>KF71E1574824</v>
+      </c>
+      <c r="B157" t="str">
+        <v>HASAN</v>
+      </c>
+      <c r="C157" t="str">
+        <v>99</v>
+      </c>
+      <c r="D157" t="str"/>
+      <c r="E157" t="str">
+        <v>085779336558</v>
+      </c>
+      <c r="F157" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>KF71E1575039</v>
+      </c>
+      <c r="B158" t="str">
+        <v>SITI NAIMAH</v>
+      </c>
+      <c r="C158" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D158" t="str"/>
+      <c r="E158" t="str">
+        <v>083873451112</v>
+      </c>
+      <c r="F158" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>KF81E1168119</v>
+      </c>
+      <c r="B159" t="str">
+        <v>IRWAN</v>
+      </c>
+      <c r="C159" t="str">
+        <v>93</v>
+      </c>
+      <c r="D159" t="str"/>
+      <c r="E159" t="str">
+        <v>085717975089</v>
+      </c>
+      <c r="F159" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>KFA1E1069132</v>
+      </c>
+      <c r="B160" t="str">
+        <v>YEPI PERMATASARI</v>
+      </c>
+      <c r="C160" t="str">
+        <v>D9</v>
+      </c>
+      <c r="D160" t="str"/>
+      <c r="E160" t="str">
+        <v>08129386117</v>
+      </c>
+      <c r="F160" t="str">
+        <v>2024-11-15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>KFB1E1024234</v>
+      </c>
+      <c r="B161" t="str">
+        <v>MIFTAHUL JANNAH</v>
+      </c>
+      <c r="C161" t="str">
+        <v>N3</v>
+      </c>
+      <c r="D161" t="str"/>
+      <c r="E161" t="str">
+        <v>0895345028205</v>
+      </c>
+      <c r="F161" t="str">
+        <v>2024-11-12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>KFB1E1029419</v>
+      </c>
+      <c r="B162" t="str">
+        <v>DANNY</v>
+      </c>
+      <c r="C162" t="str">
+        <v>93</v>
+      </c>
+      <c r="D162" t="str"/>
+      <c r="E162" t="str">
+        <v>6283898989393</v>
+      </c>
+      <c r="F162" t="str">
+        <v>2024-11-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
